--- a/file_checks/X_wrong_genes_example.xlsx
+++ b/file_checks/X_wrong_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.39205842653645</v>
+        <v>0.967724005779663</v>
       </c>
       <c r="B2" t="n">
-        <v>0.291662101126708</v>
+        <v>0.190847642122708</v>
       </c>
       <c r="C2" t="n">
-        <v>1.73193723891085</v>
+        <v>1.48268580876297</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.48238317309753</v>
+        <v>-0.111974879732007</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.460626008524841</v>
+        <v>-1.14515906835903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.871668143377317</v>
+        <v>-0.549576672735371</v>
       </c>
       <c r="G2" t="n">
-        <v>0.827297392358066</v>
+        <v>-0.108439341424603</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.74707607723378</v>
+        <v>-1.29015035283807</v>
       </c>
       <c r="I2" t="n">
-        <v>0.541353408479712</v>
+        <v>0.467547140343947</v>
       </c>
       <c r="J2" t="n">
-        <v>0.472005410236555</v>
+        <v>0.363213093871232</v>
       </c>
       <c r="K2" t="n">
-        <v>0.685843071805345</v>
+        <v>-0.640797962177922</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.06292703391087</v>
+        <v>-0.735726829777493</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.282191175759165</v>
+        <v>-0.0506885291023738</v>
       </c>
       <c r="N2" t="n">
-        <v>0.786453498968427</v>
+        <v>0.309477483831887</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.30311469641321</v>
+        <v>-0.602323166069315</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.190263220076533</v>
+        <v>0.433017050922885</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.849116976746782</v>
+        <v>-2.06716254895925</v>
       </c>
       <c r="R2" t="n">
-        <v>0.288832697585845</v>
+        <v>1.23633669688964</v>
       </c>
       <c r="S2" t="n">
-        <v>0.576285413209341</v>
+        <v>0.254840697934557</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.516206955259647</v>
+        <v>0.212512500387358</v>
       </c>
       <c r="U2" t="n">
-        <v>0.569797545507858</v>
+        <v>-0.217175427009868</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.92300589991756</v>
+        <v>0.237566176751078</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.5395263650455</v>
+        <v>-0.387535637222573</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.206983904597961</v>
+        <v>-0.53756040966439</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.14368362005582</v>
+        <v>-1.71888279121722</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.276095535185975</v>
+        <v>0.0820227787136684</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.83662902513165</v>
+        <v>-0.589504801643519</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.900673151332773</v>
+        <v>0.149264223961203</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.412306029529621</v>
+        <v>-0.300409078940423</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.621672416798515</v>
+        <v>-0.19156219723144</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.818325971849248</v>
+        <v>-0.199940470985271</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.897437024903957</v>
+        <v>-1.60846290495947</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.15852707249473</v>
+        <v>0.3399292157351</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.50862672099174</v>
+        <v>-0.118680757863987</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.14053705041427</v>
+        <v>-0.070449807748237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.00585222198636</v>
+        <v>-0.588377910424574</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.523015324631868</v>
+        <v>-0.796977681230654</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.17205903379638</v>
+        <v>2.29236600196988</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.696459789316167</v>
+        <v>0.153115337204639</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.34548889022242</v>
+        <v>1.82927175042659</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.19595576980753</v>
+        <v>0.723838322879025</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.548465957164703</v>
+        <v>-2.597439496609</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.51022623765605</v>
+        <v>-1.75443774733006</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.75997543808029</v>
+        <v>0.3544750700819</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0364405088995592</v>
+        <v>-0.726911780012625</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.01163111420917</v>
+        <v>0.27648849314861</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.40223730712569</v>
+        <v>-0.441516059872417</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.05781989107726</v>
+        <v>0.833806089367483</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.18590793192718</v>
+        <v>-0.195671504755381</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.807098184506822</v>
+        <v>0.729885680027795</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.617448715624167</v>
+        <v>-0.495581544591598</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.01322709869261</v>
+        <v>0.606206870099852</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.34527653102475</v>
+        <v>0.972207503728546</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.980349811228998</v>
+        <v>1.13866552539591</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.490793339926217</v>
+        <v>-0.440971984316077</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.721992335682752</v>
+        <v>1.55373312217143</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.96167230104075</v>
+        <v>-1.4645023275356</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.23962057959169</v>
+        <v>-0.810452477786956</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.8014399755462</v>
+        <v>0.387447994595398</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.802749183905396</v>
+        <v>-1.63840309832719</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.106415164770709</v>
+        <v>0.55642447989647</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.193952846672607</v>
+        <v>-0.126889050443565</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.50067957184077</v>
+        <v>1.21230784253893</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.25368460304137</v>
+        <v>0.690390258457186</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.093477870467733</v>
+        <v>-0.35810750832525</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.19464637964758</v>
+        <v>0.445463033869779</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.00128495572124</v>
+        <v>0.198369937773966</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.24780692122866</v>
+        <v>1.24403722448372</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0134238593538079</v>
+        <v>-1.71626151616575</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.848387162579543</v>
+        <v>-0.387397714129009</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.628743687533127</v>
+        <v>0.487419298043953</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.187878906587691</v>
+        <v>0.529166957010094</v>
       </c>
       <c r="BU2" t="n">
-        <v>-1.60935851610574</v>
+        <v>1.42784612036971</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.860163419680483</v>
+        <v>-0.421308371590507</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.370207726249656</v>
+        <v>0.346155664478925</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.245812830562728</v>
+        <v>1.23216608558146</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.742977128227763</v>
+        <v>0.130213254463455</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.535286043426866</v>
+        <v>-2.08931565637719</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.664134337380763</v>
+        <v>-0.895767476925089</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.10947828003702</v>
+        <v>-0.793918164478847</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.97831832240642</v>
+        <v>-0.520275498806208</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.266249182092515</v>
+        <v>-0.938000579534266</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.444008526767246</v>
+        <v>0.944392288542621</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.167055211192835</v>
+        <v>0.0348829786738723</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.31009557847919</v>
+        <v>-0.183358165333091</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.704557203303411</v>
+        <v>-2.16029849226052</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.744496740762391</v>
+        <v>1.22254427025165</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.41441260772766</v>
+        <v>0.936850443968091</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.167734087068926</v>
+        <v>-1.09093416748194</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.74363365233793</v>
+        <v>1.64691125005809</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.417155523327777</v>
+        <v>0.028945313526212</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.341594925127173</v>
+        <v>-0.338645425125935</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.01152594072238</v>
+        <v>0.514906086837605</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.132512702572736</v>
+        <v>0.00169202190365923</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.805199413135579</v>
+        <v>-1.07696461506219</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.70522562864059</v>
+        <v>-1.71366479677554</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.62461990323462</v>
+        <v>-0.0430314891626851</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.07860063220522</v>
+        <v>-0.331754908711986</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.20888221918515</v>
+        <v>-0.407001762964485</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.266111918776806</v>
+        <v>1.73562909505519</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.00252190109994766</v>
+        <v>-0.305875218388153</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0583578968406368</v>
+        <v>-0.347615873580313</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.609129084893155</v>
+        <v>-0.953100314705144</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.0497845732060493</v>
+        <v>0.685381054375957</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.708321663389744</v>
+        <v>-0.188513664343279</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.135185915535916</v>
+        <v>-0.36021252669568</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.862172500467271</v>
+        <v>-0.0410670137718982</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.0534738565412</v>
+        <v>0.553060456241298</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.334214257343112</v>
+        <v>-1.02755197041295</v>
       </c>
       <c r="DF2" t="n">
-        <v>-1.36431098491408</v>
+        <v>-0.199172741194879</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.72253936886823</v>
+        <v>0.975404798877744</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.66707392765431</v>
+        <v>0.162752183663428</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.88958382148746</v>
+        <v>-1.24253566794044</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.87398010220115</v>
+        <v>-1.3227142807582</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.28764571362949</v>
+        <v>0.0713740871705534</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0767856534339999</v>
+        <v>0.53614437003801</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.389153258007591</v>
+        <v>2.45209970749351</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.15357971519797</v>
+        <v>0.660269369631264</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.95626993285752</v>
+        <v>0.831366541672015</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.09637274423257</v>
+        <v>-0.350300193837113</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.511492655595722</v>
+        <v>0.0208702628132224</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.7122801609151</v>
+        <v>0.35202506065187</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.218481830822071</v>
+        <v>-1.2552877138158</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.873683462755967</v>
+        <v>1.02548312768782</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.339943980536745</v>
+        <v>1.2059177147063</v>
       </c>
       <c r="DV2" t="n">
-        <v>2.22064871794088</v>
+        <v>1.60523979321019</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.522126611446059</v>
+        <v>1.21111594600773</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.09012618415748</v>
+        <v>0.0513431766661248</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.88274223349682</v>
+        <v>0.395346876384513</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.000690413989062186</v>
+        <v>-2.30956012883646</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.660968639630194</v>
+        <v>1.65673021840013</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.208763590342081</v>
+        <v>-1.28950268708021</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.613571172514868</v>
+        <v>1.96402992521724</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.76665607976541</v>
+        <v>0.626967453321855</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.11673503408803</v>
+        <v>-0.146100745108067</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.289070579064535</v>
+        <v>-0.293249601426479</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.38790453966878</v>
+        <v>0.0733888658271842</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.17320229975136</v>
+        <v>-1.16219031322699</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.84460349659007</v>
+        <v>1.14504921077334</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.246015620060702</v>
+        <v>1.96410453098106</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.729393516703319</v>
+        <v>-0.82706688800604</v>
       </c>
       <c r="EL2" t="n">
-        <v>-2.04424278691378</v>
+        <v>-0.642622837839241</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.58134437681501</v>
+        <v>1.21024884805048</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.233472348139198</v>
+        <v>-1.76912942702519</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.308417463676346</v>
+        <v>0.269525375773944</v>
       </c>
       <c r="EP2" t="n">
-        <v>-1.52142200630678</v>
+        <v>0.509141521116877</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.537431130590066</v>
+        <v>-0.892864111368681</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.5148725433677</v>
+        <v>0.215495076850075</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.32226765848189</v>
+        <v>0.606568663270389</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.301958169256488</v>
+        <v>0.13457231417562</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.941048130570155</v>
+        <v>-1.43673092167084</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.19141056629643</v>
+        <v>0.638815708538016</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.442338384628196</v>
+        <v>-0.0294027719612604</v>
       </c>
       <c r="EX2" t="n">
-        <v>2.61512396066287</v>
+        <v>0.6433391142238</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.558103114237965</v>
+        <v>-1.35017209030226</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.504139903770628</v>
+        <v>1.15493874047774</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.00483840538414</v>
+        <v>0.679198786839764</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.57364126346684</v>
+        <v>-1.64275215802029</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.535863023440581</v>
+        <v>-0.41607204750273</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.99496331004346</v>
+        <v>-0.219109326489614</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.4288162590104</v>
+        <v>0.163207750101505</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.76212121515882</v>
+        <v>-1.07543786146878</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.220426270258404</v>
+        <v>-1.31651217507538</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.365943624553417</v>
+        <v>-0.278448198378686</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.873210078104524</v>
+        <v>0.293524077423298</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.419409460392601</v>
+        <v>0.576419287262762</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_wrong_genes_example.xlsx
+++ b/file_checks/X_wrong_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.967724005779663</v>
+        <v>0.267884042914116</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190847642122708</v>
+        <v>0.736407876176556</v>
       </c>
       <c r="C2" t="n">
-        <v>1.48268580876297</v>
+        <v>0.0602637501756888</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.111974879732007</v>
+        <v>1.46829843662619</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.14515906835903</v>
+        <v>-0.713024930335657</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.549576672735371</v>
+        <v>0.314543191755686</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.108439341424603</v>
+        <v>0.979188103848813</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.29015035283807</v>
+        <v>-0.0250901815210503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.467547140343947</v>
+        <v>-2.05619456298719</v>
       </c>
       <c r="J2" t="n">
-        <v>0.363213093871232</v>
+        <v>-2.00224562417251</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.640797962177922</v>
+        <v>-0.232974958890287</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.735726829777493</v>
+        <v>-2.2347559659425</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0506885291023738</v>
+        <v>-0.346658041870894</v>
       </c>
       <c r="N2" t="n">
-        <v>0.309477483831887</v>
+        <v>0.424040450816609</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.602323166069315</v>
+        <v>-1.78030771608544</v>
       </c>
       <c r="P2" t="n">
-        <v>0.433017050922885</v>
+        <v>-0.563633570654884</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.06716254895925</v>
+        <v>0.0238016667049675</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23633669688964</v>
+        <v>1.02818756167592</v>
       </c>
       <c r="S2" t="n">
-        <v>0.254840697934557</v>
+        <v>-1.40656043079886</v>
       </c>
       <c r="T2" t="n">
-        <v>0.212512500387358</v>
+        <v>0.57175613351233</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.217175427009868</v>
+        <v>-1.28309519529156</v>
       </c>
       <c r="V2" t="n">
-        <v>0.237566176751078</v>
+        <v>0.458288291320834</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.387535637222573</v>
+        <v>0.382470242807455</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.53756040966439</v>
+        <v>0.619165052932503</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.71888279121722</v>
+        <v>1.98316791756232</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0820227787136684</v>
+        <v>0.422700482206954</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.589504801643519</v>
+        <v>0.0519540587151164</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.149264223961203</v>
+        <v>0.421491642673039</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.300409078940423</v>
+        <v>-0.0571301645939614</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.19156219723144</v>
+        <v>0.600915060443749</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.199940470985271</v>
+        <v>0.562000232544339</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.60846290495947</v>
+        <v>0.233878863274929</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.3399292157351</v>
+        <v>0.666596327690379</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.118680757863987</v>
+        <v>0.79038246776703</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.070449807748237</v>
+        <v>0.554064022306044</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.588377910424574</v>
+        <v>1.01967574142909</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.796977681230654</v>
+        <v>-0.474316606950338</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.29236600196988</v>
+        <v>-0.371268134480152</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.153115337204639</v>
+        <v>0.123391252861226</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.82927175042659</v>
+        <v>-0.799452224414603</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.723838322879025</v>
+        <v>-0.397401700071368</v>
       </c>
       <c r="AP2" t="n">
-        <v>-2.597439496609</v>
+        <v>1.85459080231927</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.75443774733006</v>
+        <v>0.573944335301973</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.3544750700819</v>
+        <v>2.55096783454372</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.726911780012625</v>
+        <v>-0.444208467609217</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.27648849314861</v>
+        <v>-1.55473122845803</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.441516059872417</v>
+        <v>0.328566979477766</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.833806089367483</v>
+        <v>-0.429477368025036</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.195671504755381</v>
+        <v>-0.019386105263019</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.729885680027795</v>
+        <v>-0.806028009869682</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.495581544591598</v>
+        <v>-0.351030391056184</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.606206870099852</v>
+        <v>1.45399144376364</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.972207503728546</v>
+        <v>-0.152527922197573</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.13866552539591</v>
+        <v>-1.49371466892451</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.440971984316077</v>
+        <v>-0.949360724528542</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.55373312217143</v>
+        <v>0.0166843157084851</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.4645023275356</v>
+        <v>-0.582764391431284</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.810452477786956</v>
+        <v>1.82053625583044</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.387447994595398</v>
+        <v>2.59611646501157</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.63840309832719</v>
+        <v>0.451699368002987</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.55642447989647</v>
+        <v>1.08330364277229</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.126889050443565</v>
+        <v>0.789865791561522</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.21230784253893</v>
+        <v>0.143106853891179</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.690390258457186</v>
+        <v>-0.622128034882749</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.35810750832525</v>
+        <v>2.18801811004027</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.445463033869779</v>
+        <v>2.08630670828136</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.198369937773966</v>
+        <v>-0.723805372833498</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.24403722448372</v>
+        <v>1.46343230976901</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-1.71626151616575</v>
+        <v>1.46789351835545</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.387397714129009</v>
+        <v>-0.483726482037082</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.487419298043953</v>
+        <v>-0.122865098136331</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.529166957010094</v>
+        <v>-0.0166549375612893</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.42784612036971</v>
+        <v>1.15881237501195</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.421308371590507</v>
+        <v>0.585376911907659</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.346155664478925</v>
+        <v>-0.281236182991462</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.23216608558146</v>
+        <v>-0.860612302459321</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.130213254463455</v>
+        <v>1.16331287914907</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-2.08931565637719</v>
+        <v>-1.11136185032276</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.895767476925089</v>
+        <v>-0.648836709125819</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.793918164478847</v>
+        <v>0.0377738533042313</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.520275498806208</v>
+        <v>0.450495813642675</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.938000579534266</v>
+        <v>0.790966841184698</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.944392288542621</v>
+        <v>0.719603381944876</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0348829786738723</v>
+        <v>0.40941258173249</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.183358165333091</v>
+        <v>-0.033329927089745</v>
       </c>
       <c r="CH2" t="n">
-        <v>-2.16029849226052</v>
+        <v>-0.623866388977026</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.22254427025165</v>
+        <v>0.420835972956153</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.936850443968091</v>
+        <v>-0.104089749843298</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.09093416748194</v>
+        <v>-0.217201129910534</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.64691125005809</v>
+        <v>1.33542545163626</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.028945313526212</v>
+        <v>0.276236210552554</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.338645425125935</v>
+        <v>0.133411679893842</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.514906086837605</v>
+        <v>-0.739062928938872</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00169202190365923</v>
+        <v>-0.543008879415361</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.07696461506219</v>
+        <v>0.207376231799745</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.71366479677554</v>
+        <v>1.17050433852055</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0430314891626851</v>
+        <v>0.219458550588843</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.331754908711986</v>
+        <v>0.73443347228891</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.407001762964485</v>
+        <v>-0.248069026500047</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.73562909505519</v>
+        <v>-0.578529543059877</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.305875218388153</v>
+        <v>-0.526767284374686</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.347615873580313</v>
+        <v>0.190389536880396</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.953100314705144</v>
+        <v>-1.56921837441184</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.685381054375957</v>
+        <v>-0.313006427710464</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.188513664343279</v>
+        <v>0.00559211496344556</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.36021252669568</v>
+        <v>-0.00361901145616906</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0410670137718982</v>
+        <v>0.227407127192018</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.553060456241298</v>
+        <v>-0.573409348812104</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.02755197041295</v>
+        <v>0.461086119434894</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.199172741194879</v>
+        <v>-0.377974018185487</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.975404798877744</v>
+        <v>1.28761494768397</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.162752183663428</v>
+        <v>-0.316182522803021</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.24253566794044</v>
+        <v>-1.60229231111575</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.3227142807582</v>
+        <v>-0.785404681790126</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0713740871705534</v>
+        <v>-1.50300584575472</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.53614437003801</v>
+        <v>-0.784666126291351</v>
       </c>
       <c r="DM2" t="n">
-        <v>2.45209970749351</v>
+        <v>-0.693154563546832</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.660269369631264</v>
+        <v>0.960398200845221</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.831366541672015</v>
+        <v>0.620678251963861</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.350300193837113</v>
+        <v>1.76055267233858</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0208702628132224</v>
+        <v>1.78539726289936</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.35202506065187</v>
+        <v>0.578166201561124</v>
       </c>
       <c r="DS2" t="n">
-        <v>-1.2552877138158</v>
+        <v>0.02958400691915</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.02548312768782</v>
+        <v>-0.192411056780194</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.2059177147063</v>
+        <v>0.0385548587716668</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.60523979321019</v>
+        <v>-0.630423504912499</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.21111594600773</v>
+        <v>-0.225208165792882</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0513431766661248</v>
+        <v>-1.57190575583662</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.395346876384513</v>
+        <v>0.119698170009896</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-2.30956012883646</v>
+        <v>-0.216572654150831</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.65673021840013</v>
+        <v>1.02815099478245</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.28950268708021</v>
+        <v>-0.110493793434974</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.96402992521724</v>
+        <v>0.292489236849731</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.626967453321855</v>
+        <v>-0.246068876312504</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.146100745108067</v>
+        <v>-0.715936424779547</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.293249601426479</v>
+        <v>1.15785686394268</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0733888658271842</v>
+        <v>-0.41733669223051</v>
       </c>
       <c r="EH2" t="n">
-        <v>-1.16219031322699</v>
+        <v>0.764310222071807</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.14504921077334</v>
+        <v>1.12086891554075</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.96410453098106</v>
+        <v>0.0207559739501246</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.82706688800604</v>
+        <v>1.27959962203299</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.642622837839241</v>
+        <v>0.0571582393004995</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.21024884805048</v>
+        <v>0.128032633420882</v>
       </c>
       <c r="EN2" t="n">
-        <v>-1.76912942702519</v>
+        <v>0.281761044438514</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.269525375773944</v>
+        <v>-0.325885360168805</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.509141521116877</v>
+        <v>0.10043885778238</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.892864111368681</v>
+        <v>0.551723274791137</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.215495076850075</v>
+        <v>1.44001885915761</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.606568663270389</v>
+        <v>2.17996844029771</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.13457231417562</v>
+        <v>1.26595910053728</v>
       </c>
       <c r="EU2" t="n">
-        <v>-1.43673092167084</v>
+        <v>1.09273346749731</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.638815708538016</v>
+        <v>-0.131332451225252</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.0294027719612604</v>
+        <v>-1.1264372918445</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.6433391142238</v>
+        <v>1.1784374739539</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.35017209030226</v>
+        <v>2.34517407846604</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.15493874047774</v>
+        <v>-0.130870213535082</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.679198786839764</v>
+        <v>-0.766347369403624</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.64275215802029</v>
+        <v>0.586686771016912</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.41607204750273</v>
+        <v>-1.27109230091247</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.219109326489614</v>
+        <v>-0.853019362318091</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.163207750101505</v>
+        <v>0.475715744979455</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.07543786146878</v>
+        <v>0.225680120976347</v>
       </c>
       <c r="FG2" t="n">
-        <v>-1.31651217507538</v>
+        <v>-0.934946265287416</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.278448198378686</v>
+        <v>-0.44872896044863</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.293524077423298</v>
+        <v>-0.684553808504389</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.576419287262762</v>
+        <v>0.936690347545666</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_wrong_genes_example.xlsx
+++ b/file_checks/X_wrong_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.267884042914116</v>
+        <v>0.624222092207446</v>
       </c>
       <c r="B2" t="n">
-        <v>0.736407876176556</v>
+        <v>-0.646718811921653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0602637501756888</v>
+        <v>1.12418566419174</v>
       </c>
       <c r="D2" t="n">
-        <v>1.46829843662619</v>
+        <v>-1.40251287348955</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.713024930335657</v>
+        <v>-0.0417850722668188</v>
       </c>
       <c r="F2" t="n">
-        <v>0.314543191755686</v>
+        <v>-1.19105773467666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.979188103848813</v>
+        <v>0.164701992137256</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0250901815210503</v>
+        <v>-1.35630272179406</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.05619456298719</v>
+        <v>0.302364876028427</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.00224562417251</v>
+        <v>1.90415444131504</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.232974958890287</v>
+        <v>-0.257443663602928</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.2347559659425</v>
+        <v>-0.392678067898707</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.346658041870894</v>
+        <v>0.961946029682375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.424040450816609</v>
+        <v>1.32216350099735</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.78030771608544</v>
+        <v>-1.18291425500089</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.563633570654884</v>
+        <v>-0.304455201445401</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0238016667049675</v>
+        <v>-1.71137386138879</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02818756167592</v>
+        <v>-0.652074428761022</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.40656043079886</v>
+        <v>-0.488379317620182</v>
       </c>
       <c r="T2" t="n">
-        <v>0.57175613351233</v>
+        <v>-0.868560334018052</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.28309519529156</v>
+        <v>-2.04826917928379</v>
       </c>
       <c r="V2" t="n">
-        <v>0.458288291320834</v>
+        <v>0.332579799228314</v>
       </c>
       <c r="W2" t="n">
-        <v>0.382470242807455</v>
+        <v>-0.0870349206510773</v>
       </c>
       <c r="X2" t="n">
-        <v>0.619165052932503</v>
+        <v>-0.581932523361103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.98316791756232</v>
+        <v>1.1515099489503</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.422700482206954</v>
+        <v>-0.354202748297686</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0519540587151164</v>
+        <v>-2.46752625897372</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.421491642673039</v>
+        <v>-0.412083135691016</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0571301645939614</v>
+        <v>0.726184318224296</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.600915060443749</v>
+        <v>-0.225248980947913</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.562000232544339</v>
+        <v>-0.298087166253498</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.233878863274929</v>
+        <v>-0.254776305494636</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.666596327690379</v>
+        <v>0.630951176005062</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.79038246776703</v>
+        <v>-0.641835869595752</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.554064022306044</v>
+        <v>2.82938071992908</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.01967574142909</v>
+        <v>-0.308593283726904</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.474316606950338</v>
+        <v>0.178564505434725</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.371268134480152</v>
+        <v>-0.538303129253045</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.123391252861226</v>
+        <v>0.796350492983729</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.799452224414603</v>
+        <v>0.681443811360541</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.397401700071368</v>
+        <v>-0.0879667630239148</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.85459080231927</v>
+        <v>-1.40116121560907</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.573944335301973</v>
+        <v>0.991509381641615</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.55096783454372</v>
+        <v>-0.578474382059964</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.444208467609217</v>
+        <v>0.141108994880652</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.55473122845803</v>
+        <v>0.336347450451147</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.328566979477766</v>
+        <v>0.903956364496007</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.429477368025036</v>
+        <v>0.281424550444627</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.019386105263019</v>
+        <v>1.32303784986777</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.806028009869682</v>
+        <v>0.503586263665203</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.351030391056184</v>
+        <v>0.238540788302639</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.45399144376364</v>
+        <v>-0.192796035237842</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.152527922197573</v>
+        <v>-1.07149036806807</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.49371466892451</v>
+        <v>-0.758285842958135</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.949360724528542</v>
+        <v>1.26841093034416</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0166843157084851</v>
+        <v>2.07232518262888</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.582764391431284</v>
+        <v>0.00163897022791068</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.82053625583044</v>
+        <v>-1.0517197118238</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.59611646501157</v>
+        <v>-0.157737279317751</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.451699368002987</v>
+        <v>-0.549565216369757</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.08330364277229</v>
+        <v>-1.07095772522295</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.789865791561522</v>
+        <v>0.0509020352066566</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.143106853891179</v>
+        <v>0.298194408623347</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.622128034882749</v>
+        <v>-0.0701595507209984</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.18801811004027</v>
+        <v>0.00276290964461431</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.08630670828136</v>
+        <v>0.625501768658362</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.723805372833498</v>
+        <v>-1.16555600988894</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.46343230976901</v>
+        <v>0.668988308776821</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.46789351835545</v>
+        <v>-0.897493048061385</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.483726482037082</v>
+        <v>-0.227163338517417</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.122865098136331</v>
+        <v>0.207426920338491</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0166549375612893</v>
+        <v>-0.753428856705168</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.15881237501195</v>
+        <v>1.10663775263426</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.585376911907659</v>
+        <v>0.0494459450645285</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.281236182991462</v>
+        <v>-0.758771601637968</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.860612302459321</v>
+        <v>-0.789135133550304</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.16331287914907</v>
+        <v>-1.17399773178903</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.11136185032276</v>
+        <v>-0.867786372428409</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.648836709125819</v>
+        <v>-1.17334683599943</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0377738533042313</v>
+        <v>0.603440403622183</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.450495813642675</v>
+        <v>0.969719301911598</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.790966841184698</v>
+        <v>1.17903763536882</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.719603381944876</v>
+        <v>-1.78303009476074</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.40941258173249</v>
+        <v>-0.958160012001766</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.033329927089745</v>
+        <v>-1.65802916711846</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.623866388977026</v>
+        <v>-0.745794098235081</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.420835972956153</v>
+        <v>-0.778743491726414</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.104089749843298</v>
+        <v>-1.11988166080566</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.217201129910534</v>
+        <v>-1.56399993844531</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.33542545163626</v>
+        <v>-0.13839882135288</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.276236210552554</v>
+        <v>-0.755083816404428</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.133411679893842</v>
+        <v>0.412932830505496</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.739062928938872</v>
+        <v>1.32608726230649</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.543008879415361</v>
+        <v>0.113717286252516</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.207376231799745</v>
+        <v>1.23834906058437</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.17050433852055</v>
+        <v>0.585460385499037</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.219458550588843</v>
+        <v>-2.15490839937701</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.73443347228891</v>
+        <v>0.983114987669559</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.248069026500047</v>
+        <v>-0.253143597134622</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.578529543059877</v>
+        <v>-2.40328250614095</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.526767284374686</v>
+        <v>-0.327878599445946</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.190389536880396</v>
+        <v>2.37871710204648</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.56921837441184</v>
+        <v>-1.16937176968409</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.313006427710464</v>
+        <v>-1.48467948582825</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00559211496344556</v>
+        <v>0.15532533776901</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.00361901145616906</v>
+        <v>-1.09164457053561</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.227407127192018</v>
+        <v>-0.175861764273873</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.573409348812104</v>
+        <v>-1.87108142901813</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.461086119434894</v>
+        <v>0.801221906644118</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.377974018185487</v>
+        <v>-0.894831217585426</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.28761494768397</v>
+        <v>-0.460574591722222</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.316182522803021</v>
+        <v>0.334468199047353</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.60229231111575</v>
+        <v>-0.883335609290674</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.785404681790126</v>
+        <v>0.535991808979889</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.50300584575472</v>
+        <v>1.17279725471257</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.784666126291351</v>
+        <v>3.01120399899775</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.693154563546832</v>
+        <v>1.95257355983138</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.960398200845221</v>
+        <v>0.473158595119651</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.620678251963861</v>
+        <v>0.100216018305893</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.76055267233858</v>
+        <v>0.443301240465031</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.78539726289936</v>
+        <v>-0.226803898703615</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.578166201561124</v>
+        <v>2.01644001752106</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.02958400691915</v>
+        <v>0.811727039934745</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.192411056780194</v>
+        <v>-0.278421856956738</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0385548587716668</v>
+        <v>0.245942348331895</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.630423504912499</v>
+        <v>1.03916755649871</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.225208165792882</v>
+        <v>1.32810097744083</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.57190575583662</v>
+        <v>-0.436067438144694</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.119698170009896</v>
+        <v>0.74045227389059</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.216572654150831</v>
+        <v>0.858152579749974</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.02815099478245</v>
+        <v>1.74876801930429</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.110493793434974</v>
+        <v>-0.0622561345661868</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.292489236849731</v>
+        <v>0.859836829946864</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.246068876312504</v>
+        <v>0.447742179740827</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.715936424779547</v>
+        <v>1.34882564215257</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.15785686394268</v>
+        <v>0.133397333557214</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.41733669223051</v>
+        <v>-0.0567738513939224</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.764310222071807</v>
+        <v>0.00896779899278378</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.12086891554075</v>
+        <v>-0.759516142387179</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0207559739501246</v>
+        <v>-1.11221685807239</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.27959962203299</v>
+        <v>2.15291020857858</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0571582393004995</v>
+        <v>1.36927082114711</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.128032633420882</v>
+        <v>-0.390500783799285</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.281761044438514</v>
+        <v>1.45382307894944</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.325885360168805</v>
+        <v>-0.0690605542626461</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.10043885778238</v>
+        <v>-0.554542473849924</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.551723274791137</v>
+        <v>-0.152637568251301</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.44001885915761</v>
+        <v>-0.725246994539543</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.17996844029771</v>
+        <v>-0.200701633319303</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.26595910053728</v>
+        <v>0.822790026590702</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.09273346749731</v>
+        <v>0.695563841239855</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.131332451225252</v>
+        <v>1.1035192694571</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.1264372918445</v>
+        <v>0.26668752358073</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.1784374739539</v>
+        <v>0.663107725322077</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.34517407846604</v>
+        <v>1.18267612614387</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.130870213535082</v>
+        <v>0.325576668071901</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.766347369403624</v>
+        <v>-1.21468346482033</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.586686771016912</v>
+        <v>0.50391565108157</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.27109230091247</v>
+        <v>-0.860612747235326</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.853019362318091</v>
+        <v>1.06400680555782</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.475715744979455</v>
+        <v>-0.817493870472767</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.225680120976347</v>
+        <v>0.83569268456671</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.934946265287416</v>
+        <v>3.62672190256392</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.44872896044863</v>
+        <v>0.716185737451195</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.684553808504389</v>
+        <v>-0.462589398138</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.936690347545666</v>
+        <v>-0.330482837269964</v>
       </c>
     </row>
   </sheetData>
